--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8115985731.26187</v>
+        <v>4226190371.759736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1533036517311065</v>
+        <v>0.2956442848266071</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1736897905877375</v>
+        <v>0.5862620309875438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.118966025663403</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.784278824960854</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7615946162957468</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.44761350095408</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>4349306672.116474</v>
+        <v>5489972992.700112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3342513093684805</v>
+        <v>0.2867506619965613</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7175343807247931</v>
+        <v>0.5627795985864721</v>
       </c>
       <c r="I3" t="n">
-        <v>1.640344562231785</v>
+        <v>13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9883492039687495</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5296056008220641</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.895719811583833</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8892845825027825</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.88997183847182</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5804676356.253569</v>
+        <v>6640255167.402384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2558616602973827</v>
+        <v>0.1972356433574137</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4819315156382799</v>
+        <v>0.3264270553941691</v>
       </c>
       <c r="I4" t="n">
-        <v>1.675811471685445</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.66014829148528</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7732551017934627</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.804953744383974</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>9173939719.409779</v>
+        <v>11022214016.9987</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1581809020316259</v>
+        <v>0.09767268974633329</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1883485390087723</v>
+        <v>0.06354427157240598</v>
       </c>
       <c r="I5" t="n">
-        <v>1.63738898644398</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.476988937822195</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3551805598868774</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-9.580600135559742</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>6206294761.620647</v>
+        <v>5505102612.807201</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.197099102924427</v>
+        <v>0.244567005321169</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3053185694019446</v>
+        <v>0.4513992437817458</v>
       </c>
       <c r="I6" t="n">
-        <v>1.380253892904943</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.736256926793338</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.78015660535452</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.866875180297063</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6546200431.444807</v>
+        <v>7747537224.745497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.179662404522561</v>
+        <v>0.2069130658552802</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.252911955138331</v>
+        <v>0.3519790069402851</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09639845943715705</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.672797573156716</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5295973659064921</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.919149744973126</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6709759577.878749</v>
+        <v>3268420613.709931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2279848841444798</v>
+        <v>0.3686549383961679</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39814687814051</v>
+        <v>0.7790369855553486</v>
       </c>
       <c r="I8" t="n">
-        <v>1.726056260078131</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.640481915333092</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.752700446088582</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.413527006438548</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>10665166069.64149</v>
+        <v>6531762994.096291</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1090474496511141</v>
+        <v>0.2041209258825023</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04067620867417433</v>
+        <v>0.3446067313875618</v>
       </c>
       <c r="I9" t="n">
-        <v>1.312275649785428</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.945697136647237</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7777081690405244</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.608466244163251</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5787730116.732568</v>
+        <v>11346139379.9736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.250274743428734</v>
+        <v>0.1205098522245707</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4651398392262581</v>
+        <v>0.1238427724618053</v>
       </c>
       <c r="I10" t="n">
-        <v>1.634433410656175</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.619436078077062</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.784037210142812</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.061308124779179</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>6283168303.621439</v>
+        <v>3467412836.227395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1713417877696347</v>
+        <v>0.4373943575897113</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2279040469577717</v>
+        <v>0.9605343118246927</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09236876550349893</v>
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3950281767200912</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.8577579284183</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5689461947837035</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.521165967255769</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>10271211287.59473</v>
+        <v>10068085974.24191</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1234308909146084</v>
+        <v>0.1264414649673126</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08390615053051928</v>
+        <v>0.139504409785822</v>
       </c>
       <c r="I12" t="n">
-        <v>1.430498681297629</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.691909913961018</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7662067986514949</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.632226059068879</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>8100923471.213834</v>
+        <v>12988776612.58401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1529420040076436</v>
+        <v>0.110311107253307</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1726028455534178</v>
+        <v>0.09691433801612795</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09153175070347161</v>
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9881006460453647</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.232772137773675</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.805009472341567</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.875214045053084</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.69927142872011</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10039616912.14532</v>
+        <v>12934145141.41532</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1380189425677902</v>
+        <v>0.1245482273769911</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1277510561557813</v>
+        <v>0.1345055668414488</v>
       </c>
       <c r="I14" t="n">
-        <v>1.563499591748855</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.651339649161232</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5331830543506498</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.012321437851766</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6233852652.428342</v>
+        <v>4424322073.241601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2357254609519168</v>
+        <v>0.2220162171151143</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4214114557328949</v>
+        <v>0.3918568762045462</v>
       </c>
       <c r="I15" t="n">
-        <v>1.658078016958615</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.13827537594591</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6819945911062613</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.501616446179315</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7608209585.528882</v>
+        <v>5198213925.20874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2055379537617318</v>
+        <v>0.256486079484784</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3306818343083031</v>
+        <v>0.4828699794626977</v>
       </c>
       <c r="I16" t="n">
-        <v>1.764478745319596</v>
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9894234503538782</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4056425542434706</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.977879888811362</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8466249459867832</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.9546190309243</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>9288385786.379227</v>
+        <v>6249203906.324511</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1249291100399416</v>
+        <v>0.2296973729001348</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08840910114502921</v>
+        <v>0.4121379500628261</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1117952942424559</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.941182828906969</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7963493641205429</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.985804453503889</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11315227117.54709</v>
+        <v>10190267206.53947</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1078754962069739</v>
+        <v>0.1077032022571183</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03715386111350356</v>
+        <v>0.09002851050222344</v>
       </c>
       <c r="I18" t="n">
-        <v>1.377298317117138</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.691944100255375</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7301766276221924</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.911588452188473</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>5492926309.866778</v>
+        <v>8917835558.809502</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2393867504899936</v>
+        <v>0.1468624299431284</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4324155910403487</v>
+        <v>0.193423261391403</v>
       </c>
       <c r="I19" t="n">
-        <v>1.483699045478119</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.032383745425241</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7732551017934627</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.432718290444013</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5314520151.149962</v>
+        <v>11842967256.97191</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2883314215430023</v>
+        <v>0.1249649110638853</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5795205324127349</v>
+        <v>0.1356057648931432</v>
       </c>
       <c r="I20" t="n">
-        <v>1.729011835865936</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.277038476062827</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8041655163796022</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.806271851529218</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10469888850.59134</v>
+        <v>7938670702.739864</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1350989127186494</v>
+        <v>0.1243923657973597</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1189748030822186</v>
+        <v>0.1340940349969394</v>
       </c>
       <c r="I21" t="n">
-        <v>1.59601092541471</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.350005248084172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.535611316720312</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.362221086322069</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8402337709.027724</v>
+        <v>7733862437.616069</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1708364707190637</v>
+        <v>0.2045693950159888</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2263852986752836</v>
+        <v>0.345790854698423</v>
       </c>
       <c r="I22" t="n">
-        <v>1.61965553171715</v>
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9882483094298313</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3547228247412125</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.634767529171279</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8789042743353617</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.94331795753595</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>10965023295.07253</v>
+        <v>11591346998.93307</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1141874838116081</v>
+        <v>0.1215761912855954</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05612476328827366</v>
+        <v>0.1266582994293468</v>
       </c>
       <c r="I23" t="n">
-        <v>1.412765226570799</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.003051460673662</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7916667099268164</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.830282737862666</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6993521097.037404</v>
+        <v>9769708490.582344</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1966362481672578</v>
+        <v>0.1525565385535019</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3039274430453376</v>
+        <v>0.208457800530586</v>
       </c>
       <c r="I24" t="n">
-        <v>1.551677288597634</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3153889291167583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.778118680814967</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5585338409465163</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.392558138115358</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>5006792220.241013</v>
+        <v>12066820335.58088</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2641994897755762</v>
+        <v>0.1070173611678155</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5069911572739184</v>
+        <v>0.08821763800119704</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1048944452489276</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.863977736109462</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7697497739203759</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.531017742298056</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>10556605747.09349</v>
+        <v>12785906498.88001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1037175249536487</v>
+        <v>0.1210754583678211</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02465693132954334</v>
+        <v>0.1253361805226506</v>
       </c>
       <c r="I26" t="n">
-        <v>1.235430679302498</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.530974750826054</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4499237192341905</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.467499633857756</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5634276854.810122</v>
+        <v>9377376340.394737</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2598805574756133</v>
+        <v>0.1639671774051116</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4940104533666584</v>
+        <v>0.2385860801536816</v>
       </c>
       <c r="I27" t="n">
-        <v>1.652166865383005</v>
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.988508576686856</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3330539593603443</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.290233105058967</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7941170606586558</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.59210810811415</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8214938520.222753</v>
+        <v>14737553864.21418</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1402970450920366</v>
+        <v>0.1027312560788207</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1345979739317043</v>
+        <v>0.0769007455559514</v>
       </c>
       <c r="I28" t="n">
-        <v>1.300453346634208</v>
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9882972651359949</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.353521968595952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.633566673026019</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8594416998769424</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.55526732451283</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7776111417.454629</v>
+        <v>9585580493.792318</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.17549931022551</v>
+        <v>0.1688768897249712</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2403996278651097</v>
+        <v>0.2515495248446701</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539854985446414</v>
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3184687069042883</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.684582917666057</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5736959624896893</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.78933633212773</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10397558540.89831</v>
+        <v>3354821167.877869</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1481310553762876</v>
+        <v>0.3724338697881632</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1581433691459719</v>
+        <v>0.7890147530699579</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08139510049713108</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.620062959637696</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7615946162957468</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.611829366277238</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>10786809526.71182</v>
+        <v>6442639918.880923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1364719731403975</v>
+        <v>0.1524640927271656</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1231015847827891</v>
+        <v>0.2082137095780927</v>
       </c>
       <c r="I31" t="n">
-        <v>1.66103359274642</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.531573753331121</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.632070902883169</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.10984430433226</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6331144605.023177</v>
+        <v>14127848848.84822</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1853514321989971</v>
+        <v>0.07360623978396953</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2700105291976326</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.324097952936648</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.163175235500278</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.518187272505246</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.200570214604642</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>8079342818.996463</v>
+        <v>6013757147.45608</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.135843277675934</v>
+        <v>0.2260589140309857</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1212120183100505</v>
+        <v>0.4025310816278137</v>
       </c>
       <c r="I33" t="n">
-        <v>1.238386255090303</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.729239042993923</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7825872421201956</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.922505799409988</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4295997371.735425</v>
+        <v>5680986684.898214</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3274239503158216</v>
+        <v>0.1954979692088292</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6970145114200861</v>
+        <v>0.3218389571007075</v>
       </c>
       <c r="I34" t="n">
-        <v>1.587144198051295</v>
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9798750608232415</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2791561180197227</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.503626261841678</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8304969878207483</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.10631349457329</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>7611948940.202697</v>
+        <v>5380094971.033728</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1631107709410013</v>
+        <v>0.2974756577006095</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2031654345212949</v>
+        <v>0.5910975283474759</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1120327802857913</v>
+        <v>15</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9889997638093384</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3985247814246933</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.601257235428043</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8716148370458937</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.83103950548983</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>10885504240.33716</v>
+        <v>7219205179.537471</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1419723024196932</v>
+        <v>0.1679932263786554</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1396330191300199</v>
+        <v>0.2492163288916034</v>
       </c>
       <c r="I36" t="n">
-        <v>1.743789714804961</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.675889080584861</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7542878474649836</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.409867868714811</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5632189331.112511</v>
+        <v>3579409277.706066</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2134693880687624</v>
+        <v>0.2766181073974708</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3545200408716089</v>
+        <v>0.5360259310462349</v>
       </c>
       <c r="I37" t="n">
-        <v>1.356609286602503</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.744787423887443</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5737544803895763</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.730302183904083</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4368487791.554112</v>
+        <v>7381559891.038014</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2452405869306249</v>
+        <v>0.1706856827822643</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4500095036742691</v>
+        <v>0.2563254031911094</v>
       </c>
       <c r="I38" t="n">
-        <v>1.208830497212252</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.716409359776096</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7636525018352966</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.556640676929836</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5561010751.723758</v>
+        <v>3822968085.468474</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2096073181729936</v>
+        <v>0.3926034527217549</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3429124530919745</v>
+        <v>0.8422698637089859</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09698417664087158</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.41075169119418</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8077831520931739</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.744911350669296</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>8348988702.692514</v>
+        <v>3074881241.827864</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1669082962767212</v>
+        <v>0.4523414013782144</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2145790313409812</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1.57236631911227</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.932103987514758</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7883499915445215</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.834895843375671</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10721555365.41931</v>
+        <v>8832489266.128031</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1194679005372003</v>
+        <v>0.1328602486391054</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07199524267097791</v>
+        <v>0.1564523573826959</v>
       </c>
       <c r="I41" t="n">
-        <v>1.445276560236654</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.781734228329185</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.746271381280512</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.143693397281055</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5305401259.53718</v>
+        <v>9079197197.046227</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2295804389555738</v>
+        <v>0.1246339797937356</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4029423746040211</v>
+        <v>0.1347319847329999</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1159064521440875</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.733116304806311</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7374929673053986</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.016743041301661</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6778503276.346576</v>
+        <v>3260135705.471182</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1881894686768575</v>
+        <v>0.3037080383918859</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2785403482914455</v>
+        <v>0.6075533035784891</v>
       </c>
       <c r="I43" t="n">
-        <v>1.439365408661044</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.053075363087144</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6603054114150797</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.153032865214451</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>9087183647.526726</v>
+        <v>6286879323.690044</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.165744339326732</v>
+        <v>0.2454032645714044</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2110807175265377</v>
+        <v>0.4536072755016297</v>
       </c>
       <c r="I44" t="n">
-        <v>1.699456077987885</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.156864425071585</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.5668978730156634</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-13.49482188538485</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>3657809717.838157</v>
+        <v>11704077636.08639</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4282331069221865</v>
+        <v>0.08414935978922027</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.02783771108251636</v>
       </c>
       <c r="I45" t="n">
-        <v>1.767434321107401</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.49966925880688</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6328670509661986</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.15767176051709</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>8863233933.721725</v>
+        <v>9127476214.53475</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1211690798224302</v>
+        <v>0.1704652659102338</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07710819723035445</v>
+        <v>0.2557434216526044</v>
       </c>
       <c r="I46" t="n">
-        <v>1.211786073000057</v>
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9889172851344585</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3153128725854056</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.595357577015472</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8718295321851475</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.84123306668748</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6780761107.80709</v>
+        <v>9164766317.86479</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1834912379625744</v>
+        <v>0.1197547620893079</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2644196495737026</v>
+        <v>0.1218490570325742</v>
       </c>
       <c r="I47" t="n">
-        <v>1.403898499207384</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.779450532077227</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7301766276221924</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.824082020366621</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>6356289283.458293</v>
+        <v>7233465934.430169</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2410751118561885</v>
+        <v>0.2111165496378744</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4374900208903421</v>
+        <v>0.3630777487758728</v>
       </c>
       <c r="I48" t="n">
-        <v>1.729011835865936</v>
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9864988596658846</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2319527909263014</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.59806700168807</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8754704251839922</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.91134150199177</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9381206150.090719</v>
+        <v>4372954565.700535</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1228553750509847</v>
+        <v>0.2581680356011529</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08217641723053359</v>
+        <v>0.4873109616764665</v>
       </c>
       <c r="I49" t="n">
-        <v>1.300453346634208</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.870357519268703</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7369361667535307</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.86836581580191</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6544315206.147373</v>
+        <v>6438719598.499975</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2117345003031622</v>
+        <v>0.2119524183531667</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3493057742812811</v>
+        <v>0.3652847493399973</v>
       </c>
       <c r="I50" t="n">
-        <v>1.563499591748855</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.970327796741743</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5795068899898209</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.619810003054674</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>7786282315.110951</v>
+        <v>5305759563.880781</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1604679845187704</v>
+        <v>0.2537556487039963</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1952224463810544</v>
+        <v>0.4756606388530371</v>
       </c>
       <c r="I51" t="n">
-        <v>1.409809650782994</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.638158341435862</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.78015660535452</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.964973765654539</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9490301652.029264</v>
+        <v>3780495775.484444</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1476637625844434</v>
+        <v>0.2965481213522422</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1567389041190533</v>
+        <v>0.5886484915470296</v>
       </c>
       <c r="I52" t="n">
-        <v>1.581233046475685</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.565554554333255</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7154297262175628</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.743039970018002</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>11298868258.05868</v>
+        <v>7576364393.747263</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1054815776925232</v>
+        <v>0.1825463834793129</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02995885427941626</v>
+        <v>0.2876420114698925</v>
       </c>
       <c r="I53" t="n">
-        <v>1.344786983451283</v>
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9872722495365081</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2800110099281394</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.852248344496031</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8605960475569292</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.35967260664255</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9204217741.29513</v>
+        <v>11946092032.46018</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1573759672699983</v>
+        <v>0.1333146535011268</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1859292790899634</v>
+        <v>0.1576521531980847</v>
       </c>
       <c r="I54" t="n">
-        <v>1.634433410656175</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3150042204766343</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.681118431238403</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5634897628193001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.588676825147598</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>7147950237.943456</v>
+        <v>9941431817.353359</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2077790248337412</v>
+        <v>0.1330584944203901</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3374174527437045</v>
+        <v>0.1569757990944455</v>
       </c>
       <c r="I55" t="n">
-        <v>1.675811471685445</v>
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9865345004872973</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3116954178698987</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.00948069395831</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8559625849671635</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.10977100538496</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>10554850856.27711</v>
+        <v>5777619839.802999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1454272126533306</v>
+        <v>0.2167100734759821</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1500168741326542</v>
+        <v>0.3778467071544994</v>
       </c>
       <c r="I56" t="n">
-        <v>1.731967411653741</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.801758444638295</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7621103039593801</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.440447634549306</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>8675158565.153215</v>
+        <v>4496664520.216166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1259095867581654</v>
+        <v>0.219026933312929</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09135595862814691</v>
+        <v>0.3839640684979624</v>
       </c>
       <c r="I57" t="n">
-        <v>1.232475103514693</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.276177975527268</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6826615532676947</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.377053089826626</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5452872472.505996</v>
+        <v>6204158066.821375</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2089604434626262</v>
+        <v>0.2609190485743642</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3409682482521706</v>
+        <v>0.4945746468374407</v>
       </c>
       <c r="I58" t="n">
-        <v>1.285675467695183</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.927045844906227</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6058247650113109</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.189449455319991</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11056572656.85428</v>
+        <v>6383030927.62005</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231921357795815</v>
+        <v>0.2474517494761572</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.08318856352084351</v>
+        <v>0.4590160284046607</v>
       </c>
       <c r="I59" t="n">
-        <v>1.536899409658609</v>
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9879429142318379</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3901505151239473</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.756264725885716</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8905275308089147</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15.05428589029258</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10616067281.31605</v>
+        <v>11180632886.44898</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.144588622069256</v>
+        <v>0.09090033903463479</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1474964604481467</v>
+        <v>0.04566277706529178</v>
       </c>
       <c r="I60" t="n">
-        <v>1.731967411653741</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.572539862300403</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7120032323285018</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.667524784269634</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>7734317191.776097</v>
+        <v>5763159391.073489</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.136823139491256</v>
+        <v>0.1740757632964116</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1241570276807308</v>
+        <v>0.2652764614975974</v>
       </c>
       <c r="I61" t="n">
-        <v>1.194052618273227</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.61088744270767</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7089687011175059</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.568486579642448</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6911102434.181306</v>
+        <v>13188083156.73481</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2179318371191845</v>
+        <v>0.1155956450897479</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3679320894525187</v>
+        <v>0.1108674598076094</v>
       </c>
       <c r="I62" t="n">
-        <v>1.699456077987885</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.24387488538242</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8118083180831205</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.992291476279989</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>11041919015.7569</v>
+        <v>10993944238.6477</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1330817394968252</v>
+        <v>0.1420014879202287</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1129121175609896</v>
+        <v>0.1805885882059558</v>
       </c>
       <c r="I63" t="n">
-        <v>1.658078016958615</v>
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.52131875608812</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.887432966849889</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.550643196791422</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.125430968978552</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>10640594501.69503</v>
+        <v>8681132490.810274</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.128500487428798</v>
+        <v>0.1436252287728446</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09914300230532913</v>
+        <v>0.184875860731118</v>
       </c>
       <c r="I64" t="n">
-        <v>1.542810561234219</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.91590705604216</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.761078112588547</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.305655195728779</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>4782674408.589521</v>
+        <v>12863839724.84652</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2524819142677371</v>
+        <v>0.07798809620289868</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4717735693113732</v>
+        <v>0.01156971114190769</v>
       </c>
       <c r="I65" t="n">
-        <v>1.362520438178113</v>
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9833769282743743</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.04687357274502063</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.312446627997804</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8409740625367529</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.50703462273725</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>8676819550.907583</v>
+        <v>12163180462.00358</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1418853178606471</v>
+        <v>0.1001396266219142</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1393715839587646</v>
+        <v>0.0700578914465064</v>
       </c>
       <c r="I66" t="n">
-        <v>1.389120620268359</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.091670046657923</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7553417999830949</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.015165953003976</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>9059960388.405851</v>
+        <v>8521031351.794041</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1327047755681801</v>
+        <v>0.1183501278618902</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1117791391298383</v>
+        <v>0.1181403065128047</v>
       </c>
       <c r="I67" t="n">
-        <v>1.356609286602503</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.410719704525794</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5448124810978174</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.485529917430555</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7088899011.387101</v>
+        <v>9729524086.646584</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1647996308204433</v>
+        <v>0.1381102567847325</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2082413626704987</v>
+        <v>0.1703143081018417</v>
       </c>
       <c r="I68" t="n">
-        <v>1.318186801361038</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.00786007695984</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5715698587751455</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.42353709854307</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>7636211566.427364</v>
+        <v>8853422300.460571</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1866040703042842</v>
+        <v>0.139055074774413</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2737753773634217</v>
+        <v>0.1728089747858203</v>
       </c>
       <c r="I69" t="n">
-        <v>1.60783322856593</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.612287752640743</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7579617760522608</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.546947768404472</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>9015715420.259184</v>
+        <v>9854899185.909342</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1473017578855458</v>
+        <v>0.1071156741521344</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1556508861824288</v>
+        <v>0.08847722040676274</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1163876107499986</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.59704132884819</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7209303347775082</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.821565366701973</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>11435907114.46756</v>
+        <v>12401615732.82155</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09551368501569496</v>
+        <v>0.1210253972010888</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1252040006465559</v>
       </c>
       <c r="I71" t="n">
-        <v>1.232475103514693</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.409253094876266</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8077831520931739</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.74640994698721</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>4314053839.623854</v>
+        <v>5503030001.895377</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2835511969657423</v>
+        <v>0.2532269457953236</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5651533982374313</v>
+        <v>0.4742646688922677</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1002202942742406</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.849896720968589</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7888258033389401</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.926619345810215</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>9558773632.68697</v>
+        <v>3724544309.991749</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1394812306717654</v>
+        <v>0.4015717267714056</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1321460148137285</v>
+        <v>0.8659494027618158</v>
       </c>
       <c r="I73" t="n">
-        <v>1.504388075992754</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.857048194127877</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5213706857570121</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.570365521012365</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8220332127.239959</v>
+        <v>6019286619.827826</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1443474122010207</v>
+        <v>0.1688444801169928</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1467714956509216</v>
+        <v>0.2514639515700843</v>
       </c>
       <c r="I74" t="n">
-        <v>1.338875831875673</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.094695541103038</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6674159011004051</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.253622480905063</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>7779174538.653162</v>
+        <v>4730218307.30553</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1912559632911374</v>
+        <v>0.2192876464914923</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2877568064011309</v>
+        <v>0.384652447093353</v>
       </c>
       <c r="I75" t="n">
-        <v>1.67876704747325</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.703839790417248</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7167966247860521</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.632092705303794</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>9739079562.527021</v>
+        <v>8229290638.67276</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1194167428793683</v>
+        <v>0.1919353975149849</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07184148651950688</v>
+        <v>0.312432458694676</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1012978369894304</v>
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2613536611553087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.724083412853518</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5922706460619188</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.121329508384857</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7297449167.806436</v>
+        <v>9233363004.377447</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1866519065331746</v>
+        <v>0.1302125790386451</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2739191508426384</v>
+        <v>0.1494615367012593</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1109345994948868</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.668585291006378</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7521695724907744</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.374806158809109</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>6641319085.148264</v>
+        <v>10034189178.29117</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1885270687866744</v>
+        <v>0.1195592985824398</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2795550173717246</v>
+        <v>0.1213329615476837</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07275998749945253</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.594433363402462</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7516378231849132</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.438323100295802</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>5302895432.800294</v>
+        <v>11180599864.06512</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2099307376710108</v>
+        <v>0.1248711953718362</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3438845018415306</v>
+        <v>0.1353583210285317</v>
       </c>
       <c r="I79" t="n">
-        <v>1.256119709817133</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.896319436441923</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7893009463961969</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.889699491482014</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6907450828.392404</v>
+        <v>6019989080.238416</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1751960614798389</v>
+        <v>0.2445348588475677</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2394882030257258</v>
+        <v>0.4513143652786094</v>
       </c>
       <c r="I80" t="n">
-        <v>1.365476013965918</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.053101997122512</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8027990618619486</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.002879240116458</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>10721624873.90266</v>
+        <v>7066391239.857164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1035870376983013</v>
+        <v>0.1434542605399939</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02426474726466476</v>
+        <v>0.1844244417708845</v>
       </c>
       <c r="I81" t="n">
-        <v>1.253164134029328</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.431049802673053</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5470569805136466</v>
+      </c>
+      <c r="N81" t="n">
+        <v>7.510089807599879</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>5273609750.600896</v>
+        <v>8833121918.6227</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2175536064020044</v>
+        <v>0.147084739910686</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3667953036435845</v>
+        <v>0.1940102413977532</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1010882901389128</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.866373186764694</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5132110045295274</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7.397846903825855</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>5403396332.48897</v>
+        <v>8505120068.388083</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2118433221559982</v>
+        <v>0.1749315127872116</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3496328422120092</v>
+        <v>0.267535954614629</v>
       </c>
       <c r="I83" t="n">
-        <v>1.291586619270793</v>
+        <v>16</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9904424555902704</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3927112476672358</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.525497775293628</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8243561949471465</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.9616261236493</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>6126108870.468437</v>
+        <v>10198201180.45786</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2249060813531781</v>
+        <v>0.1553931837544757</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.388893427369106</v>
+        <v>0.2159475862400335</v>
       </c>
       <c r="I84" t="n">
-        <v>1.554632864385439</v>
+        <v>22</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9906610270937701</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3832729596404146</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.202119421734581</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7623803017720427</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.04548661370627</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>6413586347.594413</v>
+        <v>7142909946.492557</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1972633252960778</v>
+        <v>0.176021706757956</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3058121455530144</v>
+        <v>0.2704144673097676</v>
       </c>
       <c r="I85" t="n">
-        <v>1.427543105509824</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.621342102017417</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7631392436334035</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.641442770650652</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5376223717.902023</v>
+        <v>9797980971.638161</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2504297682994107</v>
+        <v>0.1574631257670273</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4656057719625813</v>
+        <v>0.2214129937924729</v>
       </c>
       <c r="I86" t="n">
-        <v>1.519165954931779</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.777174334546776</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.5428142337936774</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.079110341326773</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9703239963.548801</v>
+        <v>5699815495.106821</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1120292659033066</v>
+        <v>0.2729768465901615</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.04963816296919768</v>
+        <v>0.5264116644648542</v>
       </c>
       <c r="I87" t="n">
-        <v>1.226563951939083</v>
+        <v>14</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9880749783537023</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2883904862200502</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.568435190650117</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8714526106643784</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.86061702263745</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>4132081431.299312</v>
+        <v>6333169702.756705</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2846280088023772</v>
+        <v>0.1828105726420129</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5683897943289632</v>
+        <v>0.2883395679407201</v>
       </c>
       <c r="I88" t="n">
-        <v>1.327053528724453</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.779163739012727</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7430077980590314</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.0809922221679</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6537363757.284069</v>
+        <v>5574264546.819125</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2039460491263689</v>
+        <v>0.2716066679798946</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3258973085771592</v>
+        <v>0.5227938894357304</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1259205981412798</v>
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9872579064661628</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3051534959380375</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.877390830505929</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8970637134452955</v>
+      </c>
+      <c r="N89" t="n">
+        <v>15.06388343839998</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6630086213.941349</v>
+        <v>8422574029.177134</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1801547976085739</v>
+        <v>0.1340394380731013</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2543918599878632</v>
+        <v>0.1595658508038831</v>
       </c>
       <c r="I90" t="n">
-        <v>1.347742559239088</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.046806955874374</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7369361667535307</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.69191637919624</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8541882256.920425</v>
+        <v>10943268236.39116</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474998779079679</v>
+        <v>0.1086698264459405</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1562463429227864</v>
+        <v>0.0925807535650362</v>
       </c>
       <c r="I91" t="n">
-        <v>1.421631953934214</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.568933837361934</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7495019982137322</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.42110612691271</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>7993811453.86202</v>
+        <v>12109510252.16031</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1798947996584586</v>
+        <v>0.08198092155072048</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2536104269454952</v>
+        <v>0.02211223729927432</v>
       </c>
       <c r="I92" t="n">
-        <v>1.622611107504955</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.611690086600977</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5747518222972392</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.883346359343807</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7271816013.977632</v>
+        <v>6409236218.856865</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.173261615472423</v>
+        <v>0.1618411936430401</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2336741570757433</v>
+        <v>0.2329727017889097</v>
       </c>
       <c r="I93" t="n">
-        <v>0.09083408265476307</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.952516002612732</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7167966247860521</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.38341649310831</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>5499544321.169859</v>
+        <v>8468270578.909549</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2162366535391488</v>
+        <v>0.1583709055471272</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3628371551973367</v>
+        <v>0.2238098659927689</v>
       </c>
       <c r="I94" t="n">
-        <v>1.341831407663478</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.012319522548248</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7791793844868442</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.571268167188636</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6518981706.464252</v>
+        <v>13359523145.85795</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2342550476074686</v>
+        <v>0.09881883848596143</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.416992076377092</v>
+        <v>0.06657052541903472</v>
       </c>
       <c r="I95" t="n">
-        <v>1.723100684290326</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.998902044391373</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7752416132729992</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.505930221068612</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>10829221708.8668</v>
+        <v>10617968917.9647</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1439195809172412</v>
+        <v>0.1425891742288328</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.145485633583333</v>
+        <v>0.1821402960171087</v>
       </c>
       <c r="I96" t="n">
-        <v>1.758567593743986</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.567262035583119</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4842853366434875</v>
+      </c>
+      <c r="N96" t="n">
+        <v>7.118444697286631</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6534774684.912012</v>
+        <v>10196142955.95051</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2401023272650335</v>
+        <v>0.1490020497518978</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4345662823674121</v>
+        <v>0.1990726439302803</v>
       </c>
       <c r="I97" t="n">
-        <v>1.770389896895206</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.458449320170637</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.1702145120852205</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-5.862739561875047</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9160640604.292383</v>
+        <v>11499281740.76303</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1166633608024352</v>
+        <v>0.09635401540535515</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0635660992242412</v>
+        <v>0.06006248674042122</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06305599347427951</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.658191680146034</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7324460024863281</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.990728369580527</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>7925513112.631469</v>
+        <v>12712235641.5245</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1761570323787463</v>
+        <v>0.08592396025385581</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2423764350784295</v>
+        <v>0.03252330841962536</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09452434254203192</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.725297823109742</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7290357418865273</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.855417014620805</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4792196777.143451</v>
+        <v>12817056237.35252</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2432347009537476</v>
+        <v>0.1025924951603092</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4439807423672687</v>
+        <v>0.07653436574075979</v>
       </c>
       <c r="I100" t="n">
-        <v>1.315231225573233</v>
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9885118978330953</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2222190731252635</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.794456407693156</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8406219906469012</v>
+      </c>
+      <c r="N100" t="n">
+        <v>14.01798340524487</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10086464738.74046</v>
+        <v>8873245992.533813</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1685411245697057</v>
+        <v>0.1783013297874567</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.219486554573705</v>
+        <v>0.2764335097982042</v>
       </c>
       <c r="I101" t="n">
-        <v>1.918168686285457</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9896808752972249</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.586715005680495</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8666764415046271</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.74681382441204</v>
       </c>
     </row>
   </sheetData>
